--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>-18.29353546314387</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.062429279367668</v>
+        <v>-9.119472442849068</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.708770803832653</v>
+        <v>-1.768105120311356</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.690683249125819</v>
+        <v>-7.882799701025307</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.58686842742348</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.722896680824222</v>
+        <v>-9.767397418183251</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.724193536580207</v>
+        <v>-1.770370088702975</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.566542033580572</v>
+        <v>-7.714786178657437</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.78687274679731</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.25940615897531</v>
+        <v>-10.32831094883132</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.721352506863552</v>
+        <v>-1.772805257031536</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.372239167106516</v>
+        <v>-7.523114865054567</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.96628525869284</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.91015907172331</v>
+        <v>-10.97234751022151</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.724350644214307</v>
+        <v>-1.76896921229891</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.955890844436786</v>
+        <v>-7.09063682528383</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.13566521356311</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.51592683190713</v>
+        <v>-11.60067330820163</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.777911255139809</v>
+        <v>-1.824624591679087</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.709480612652658</v>
+        <v>-6.838256503403876</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.32327288927613</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.31663898140426</v>
+        <v>-12.39460364482674</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.56144311995471</v>
+        <v>-1.613773054413089</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.333639874975229</v>
+        <v>-6.459705659038209</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.54359400945425</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.95581829844017</v>
+        <v>-13.03764519120095</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.46844849286993</v>
+        <v>-1.516772182658741</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.658260340581948</v>
+        <v>-5.8074733160691</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.81701725517982</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.56835477919316</v>
+        <v>-13.65362494760132</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.353812289187776</v>
+        <v>-1.409912806864572</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.274184544417071</v>
+        <v>-5.39568111478829</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.15529637455975</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.19931213004447</v>
+        <v>-14.29513469454306</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.279107609172887</v>
+        <v>-1.328531052400403</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.86745906433601</v>
+        <v>-5.005857797675896</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.56622507980702</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.04299321746814</v>
+        <v>-15.1408450889072</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.170755710854762</v>
+        <v>-1.207597451051379</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.303076073434882</v>
+        <v>-4.438987269234841</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.0532723723594</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.82342538986343</v>
+        <v>-15.9174543088727</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9286790313112473</v>
+        <v>-0.9722894920770369</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.786152680335012</v>
+        <v>-3.906104358970906</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.61404455142832</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.58724342995257</v>
+        <v>-16.68611650101328</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8393240644164669</v>
+        <v>-0.8825941253083716</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.320878421945751</v>
+        <v>-3.4289553819042</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.25878356729652</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.32181326549329</v>
+        <v>-17.41205850898131</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6532693487326977</v>
+        <v>-0.7016585000357173</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.739750375710056</v>
+        <v>-2.855015009928612</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.990797670399703</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.08273790665441</v>
+        <v>-18.18341771550729</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4725039233969859</v>
+        <v>-0.5174105221441063</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.458776464423773</v>
+        <v>-2.574486236938948</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.812038394554502</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.94942217017099</v>
+        <v>-19.0532834086144</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3114031369295466</v>
+        <v>-0.3534556136571708</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.887912783615991</v>
+        <v>-2.014148767615914</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.720411458093052</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.78375535336567</v>
+        <v>-19.87705110341581</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07115937978387327</v>
+        <v>-0.1064824128508502</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.619730052206074</v>
+        <v>-1.738424869769163</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.707133408543484</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.51723852777053</v>
+        <v>-20.62744953309218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03031905954234549</v>
+        <v>0.01036639001155497</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.177891015903503</v>
+        <v>-1.298444940470117</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.766912182377432</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.23012750980536</v>
+        <v>-21.35310351039769</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3099182790302474</v>
+        <v>0.2795310441346012</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7929904046595984</v>
+        <v>-0.9195798808362476</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.889348772988841</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.87483177864047</v>
+        <v>-21.99245302737054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4610820076408166</v>
+        <v>0.4310744495275804</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5631026590617303</v>
+        <v>-0.6855549675403942</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.06730304402508</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.49373111857455</v>
+        <v>-22.60989912168919</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6474378462899455</v>
+        <v>0.6195119643285437</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2168636181094427</v>
+        <v>-0.3494231843819191</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.29100288974071</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.94591307412209</v>
+        <v>-23.06404492266298</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8131864002661975</v>
+        <v>0.7914531775489322</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1049244288126848</v>
+        <v>-0.2359391033498376</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.54941048951028</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.38944101749124</v>
+        <v>-23.50877735789357</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8923162786415898</v>
+        <v>0.8747595005308352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04620002288935922</v>
+        <v>-0.1001588305782965</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.83343825169438</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.88536435683298</v>
+        <v>-23.993807901271</v>
       </c>
       <c r="F24" t="n">
-        <v>1.035559164032915</v>
+        <v>1.022938184093491</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01715363056175323</v>
+        <v>-0.1292368351897701</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.13105093009764</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.13922410893405</v>
+        <v>-24.24267948598937</v>
       </c>
       <c r="F25" t="n">
-        <v>1.091463297167085</v>
+        <v>1.077650917669064</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1853319251883822</v>
+        <v>0.05478857355353152</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.43792285923395</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.40223538072148</v>
+        <v>-24.51393890856709</v>
       </c>
       <c r="F26" t="n">
-        <v>1.22894556930805</v>
+        <v>1.215316482049814</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08136594832223544</v>
+        <v>-0.04739685012614045</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.74521447667838</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.45634586836634</v>
+        <v>-24.55964413778755</v>
       </c>
       <c r="F27" t="n">
-        <v>1.197942996178843</v>
+        <v>1.183646201475678</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1206613768284395</v>
+        <v>-0.2500133289046931</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.0437977440352</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.53603871576392</v>
+        <v>-24.64539872140086</v>
       </c>
       <c r="F28" t="n">
-        <v>1.125202161590213</v>
+        <v>1.112345520199638</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4789191517894317</v>
+        <v>-0.6082972884713687</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.32126234945691</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.34300580266552</v>
+        <v>-24.45965822098529</v>
       </c>
       <c r="F29" t="n">
-        <v>1.146071292319925</v>
+        <v>1.1222171165423</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5368525918640695</v>
+        <v>-0.6530205949787049</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.56811546896067</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.08531000583182</v>
+        <v>-24.19846677929286</v>
       </c>
       <c r="F30" t="n">
-        <v>1.032993072675936</v>
+        <v>1.007017943837952</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8541183666276173</v>
+        <v>-0.9737820146009936</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.77712119107646</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.85787052086535</v>
+        <v>-23.9783720762206</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9662877896973421</v>
+        <v>0.9379560463478469</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.081610220805449</v>
+        <v>-1.182316214264006</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.94159121054685</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.5137131560649</v>
+        <v>-23.6301822821449</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9399067994712641</v>
+        <v>0.9141673320844307</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.327601498898641</v>
+        <v>-1.430533183840291</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.05535644837951</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.17690057315866</v>
+        <v>-23.29621072895531</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9062988580765533</v>
+        <v>0.8755188540956553</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.612935147031219</v>
+        <v>-1.708980280678121</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.1115943589849</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.71826411231015</v>
+        <v>-22.85095460161104</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8364906993244698</v>
+        <v>0.8139064769224924</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.861296131938762</v>
+        <v>-1.940111795045953</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.11036173406913</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.36536108921143</v>
+        <v>-22.48477598343081</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7570727902865595</v>
+        <v>0.7276805704068845</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.158255744994793</v>
+        <v>-2.208229064941661</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.05289377397338</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.78724427262933</v>
+        <v>-21.91502514836457</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8059725414004064</v>
+        <v>0.774878322151307</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.470350060135859</v>
+        <v>-2.498812726513771</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.94704052434616</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.3346564556937</v>
+        <v>-21.4708949590647</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8258990263255135</v>
+        <v>0.7914269929432487</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.651324962317038</v>
+        <v>-2.681096858979123</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.80122259107783</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.85397255685973</v>
+        <v>-20.98191054022907</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9206872988996102</v>
+        <v>0.8885718800288561</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.781030406570018</v>
+        <v>-2.813630240645916</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-12.62362980933289</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.35713275631906</v>
+        <v>-20.49203584480021</v>
       </c>
       <c r="F39" t="n">
-        <v>0.941634983446372</v>
+        <v>0.9073855192124165</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.84976499648908</v>
+        <v>-2.867321774599835</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.42479542425822</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.69627258577726</v>
+        <v>-19.83670062605761</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9585764233235654</v>
+        <v>0.9283855729705451</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.975582026798067</v>
+        <v>-2.984144392856557</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.21224176619661</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.1606533842194</v>
+        <v>-19.3044854232386</v>
       </c>
       <c r="F41" t="n">
-        <v>1.030911396524102</v>
+        <v>0.9989923621959739</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.134561860205147</v>
+        <v>-3.137206505379176</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-11.99697411290239</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.40517514104044</v>
+        <v>-18.54219918258195</v>
       </c>
       <c r="F42" t="n">
-        <v>1.005001729200326</v>
+        <v>0.9771282164502912</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.350336103339635</v>
+        <v>-3.350467026368052</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.78577678955876</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.87849798232348</v>
+        <v>-18.02449025131157</v>
       </c>
       <c r="F43" t="n">
-        <v>1.116233934143631</v>
+        <v>1.08042648587151</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.383773844797403</v>
+        <v>-3.389783211801755</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.58399113332083</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.32592424858559</v>
+        <v>-17.46211038274523</v>
       </c>
       <c r="F44" t="n">
-        <v>1.056938894573453</v>
+        <v>1.038688224412087</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.527592791513764</v>
+        <v>-3.541431355617469</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.39270459493934</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.66799675388033</v>
+        <v>-16.81960562078752</v>
       </c>
       <c r="F45" t="n">
-        <v>1.081434593190323</v>
+        <v>1.053966941828382</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.709863831676274</v>
+        <v>-3.71400099937426</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.21676025350669</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.19211773018927</v>
+        <v>-16.34608321160797</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8971080614816616</v>
+        <v>0.8919366018591798</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.87533744729285</v>
+        <v>-3.869328080288498</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.05913326116402</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.60267607164908</v>
+        <v>-15.74216146612483</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9777042777753272</v>
+        <v>0.9664318050286012</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.839359799083787</v>
+        <v>-3.852596117256772</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.91971129831727</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.9438321157449</v>
+        <v>-15.10787867035173</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9645726980250759</v>
+        <v>0.9434679058442136</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.980337716083493</v>
+        <v>-4.003707476655974</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.7959218123427</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.44298607053467</v>
+        <v>-14.5967420751079</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8779278378185329</v>
+        <v>0.8700200869021303</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.091177151941546</v>
+        <v>-4.103929054909387</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.67982824533046</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.92595793901207</v>
+        <v>-14.07304996143886</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8689596103719506</v>
+        <v>0.8663280575007636</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.158589419273594</v>
+        <v>-4.188413685147045</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.56964362236533</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.45197729923306</v>
+        <v>-13.58706367995399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9831375834546435</v>
+        <v>0.9730565102665145</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.247603986294489</v>
+        <v>-4.287692617595854</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.46085351617855</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.80557103102852</v>
+        <v>-12.96296669579175</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8689203334634253</v>
+        <v>0.8696011332111951</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.350601132750348</v>
+        <v>-4.397523946135094</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.35144707898411</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.41081191574479</v>
+        <v>-12.55317761684572</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8813449288602234</v>
+        <v>0.8822744823619859</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.538082909443865</v>
+        <v>-4.58954875191469</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.238765991684</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.7723264907595</v>
+        <v>-11.93410807697471</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8611565978782818</v>
+        <v>0.8560244151643251</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.726088378251052</v>
+        <v>-4.764029871886374</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.11914809870812</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.39343524651994</v>
+        <v>-11.54863140440576</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8248647344010172</v>
+        <v>0.8126627081525284</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.943119482458345</v>
+        <v>-4.98404602114158</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.99343175669966</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.0123183107973</v>
+        <v>-11.1617669477356</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7468607940700132</v>
+        <v>0.738075858863215</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.140093178712114</v>
+        <v>-5.18967372957373</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.862372846998548</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.45432436368293</v>
+        <v>-10.60606415361854</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7294349389876759</v>
+        <v>0.7175994972187555</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.221435656267757</v>
+        <v>-5.269327300062791</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.731189742708846</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.22444971038791</v>
+        <v>-10.36491702757679</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6415463100111687</v>
+        <v>0.6353536507670323</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.360842496926456</v>
+        <v>-5.412779662299584</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.602858137131619</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.718746420823395</v>
+        <v>-9.85781286160821</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6709123452851603</v>
+        <v>0.6643138246529303</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.574679079240369</v>
+        <v>-5.629273982090366</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.479665995626789</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.593623282565019</v>
+        <v>-9.715407883598756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6514702755651971</v>
+        <v>0.651954690770341</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.632141196412705</v>
+        <v>-5.685688715035364</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.362583953880137</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.220348636244568</v>
+        <v>-9.333885086488015</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6824597563915626</v>
+        <v>0.6882727388532891</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.640363162597308</v>
+        <v>-5.700234263492521</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.254692388505026</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.948827367610011</v>
+        <v>-9.055254697410401</v>
       </c>
       <c r="F62" t="n">
-        <v>0.642632971147032</v>
+        <v>0.6506323681833266</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.717267349489607</v>
+        <v>-5.79875384237651</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.159751737055998</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.613376384199306</v>
+        <v>-8.74250576712725</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6023086783945157</v>
+        <v>0.6125206746110621</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.711192520971046</v>
+        <v>-5.784915278272805</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.078998987185731</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.302630576250937</v>
+        <v>-8.435360342460356</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4973215019067144</v>
+        <v>0.509379512823944</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.636474748653315</v>
+        <v>-5.713588412391082</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.012653707381192</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.196452000204539</v>
+        <v>-8.319428000796872</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3555580467365045</v>
+        <v>0.3757594700212878</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.653861326827128</v>
+        <v>-5.739275510566548</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.957410748304497</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.995288767041417</v>
+        <v>-8.122166273880586</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3121308782104991</v>
+        <v>0.3284177029456063</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.634681103163999</v>
+        <v>-5.727728099460146</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.915123302192789</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.868201783356783</v>
+        <v>-7.988297477323936</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2155358678442442</v>
+        <v>0.2359336756716534</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.586239582649613</v>
+        <v>-5.681040947526551</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.885406784846426</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.718897161749739</v>
+        <v>-7.847463575655489</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1614122878965486</v>
+        <v>0.1796891426635982</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.531854156645083</v>
+        <v>-5.628514628525546</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.869596338858573</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.645370788990605</v>
+        <v>-7.785353690974341</v>
       </c>
       <c r="F69" t="n">
-        <v>0.157379858621297</v>
+        <v>0.1709434843653252</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.441255420980339</v>
+        <v>-5.540953307120082</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.867359185790237</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.652519186342188</v>
+        <v>-7.794060072364088</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05023245216461084</v>
+        <v>0.0641233854796822</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.345786348658471</v>
+        <v>-5.437236084007928</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.876577408347272</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.730850434244235</v>
+        <v>-7.859246648213042</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05350552787504236</v>
+        <v>0.06485655443881887</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.179343902631608</v>
+        <v>-5.265792378295525</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.897457940933778</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.734581740554127</v>
+        <v>-7.877196195409049</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01998156797556606</v>
+        <v>-0.009547002610710384</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.101641085265964</v>
+        <v>-5.181936178594269</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.928001030843172</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.954126566907031</v>
+        <v>-8.087327656018752</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.05328838640491718</v>
+        <v>-0.04714809637214765</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.833039400165112</v>
+        <v>-4.91396292402982</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.969774566403704</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.080283997089904</v>
+        <v>-8.215789331501767</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1168515167014972</v>
+        <v>-0.09501355556149815</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.69968120341929</v>
+        <v>-4.779360958514035</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.021593125380415</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.429678283027046</v>
+        <v>-8.554081344629129</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1915038275050193</v>
+        <v>-0.1836353534971419</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.459895676873077</v>
+        <v>-4.532623419158866</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.081244877184524</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.686693280112971</v>
+        <v>-8.81532515553293</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1868167830876813</v>
+        <v>-0.1720879423907395</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.180283365082333</v>
+        <v>-4.23152663840485</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.146172713713181</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.206994487346007</v>
+        <v>-9.331895056456073</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2542552350254123</v>
+        <v>-0.2450906230362041</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.951390634500437</v>
+        <v>-4.017323471611369</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.213415316319288</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.661101011411276</v>
+        <v>-9.784024642792241</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1975262868122133</v>
+        <v>-0.1967407486417097</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.865636050887131</v>
+        <v>-3.925166751908459</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.285262500075492</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.10752235370845</v>
+        <v>-10.22244658805312</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2667714765421024</v>
+        <v>-0.2630401702322105</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.72181710417077</v>
+        <v>-3.775993053329833</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.36182713837588</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.70097025691821</v>
+        <v>-10.82344875000256</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3182111344072442</v>
+        <v>-0.3196905646283592</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.392833718363878</v>
+        <v>-3.447625005756501</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.443487475952349</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.37851002128038</v>
+        <v>-11.50835948086462</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3329268828013442</v>
+        <v>-0.3365534506885024</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.229939286407122</v>
+        <v>-3.287126465219781</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.528102073511082</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.22770296820041</v>
+        <v>-12.34981487680519</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3952331520251186</v>
+        <v>-0.4027874107647946</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.892786303626992</v>
+        <v>-2.94700152969458</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.61780597361879</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.14574833576509</v>
+        <v>-13.26822682884943</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3700435613576377</v>
+        <v>-0.3831358641993637</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.753549662905235</v>
+        <v>-2.802017368025305</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.714384832230802</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.08750386377613</v>
+        <v>-14.22554910493928</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4271129094447216</v>
+        <v>-0.4360549522856205</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.474055181840067</v>
+        <v>-2.526974269926324</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.821937383076847</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.31370276332651</v>
+        <v>-15.445516068337</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4719409543747917</v>
+        <v>-0.493189761886913</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.273389456184932</v>
+        <v>-2.327539220738311</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.942722070535801</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.38016247590499</v>
+        <v>-16.50812664388001</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5675409497250754</v>
+        <v>-0.5889075879627723</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.027110147429223</v>
+        <v>-2.092781138483321</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.0769694262131</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.54604513626353</v>
+        <v>-17.68771694531385</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4997490056106179</v>
+        <v>-0.5182484295259767</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.968364984578398</v>
+        <v>-2.027411270394583</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.22704991057547</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.92603931729567</v>
+        <v>-19.06342994331674</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6538715946634172</v>
+        <v>-0.6733005720805386</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.938789472458939</v>
+        <v>-1.999747234490015</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.39245143505121</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.45553450447748</v>
+        <v>-20.60312403441225</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6383048465846048</v>
+        <v>-0.6549058865879135</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.926063754096781</v>
+        <v>-1.986222885654512</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.57848192296897</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.08925751458226</v>
+        <v>-22.24073545846104</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6692550505024453</v>
+        <v>-0.6960942713279836</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.938161041922536</v>
+        <v>-2.000454218843468</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.78654642692149</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.80197948003403</v>
+        <v>-23.9513233785496</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8179181492702448</v>
+        <v>-0.8347417584218627</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.982557040858829</v>
+        <v>-2.04127601910397</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.01686859487612</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.53592406839223</v>
+        <v>-25.68758530451078</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8640423321816457</v>
+        <v>-0.88409974013517</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.041550957463647</v>
+        <v>-2.11014153205145</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.26967849185868</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.55115678330491</v>
+        <v>-27.71242776970929</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.038523452153329</v>
+        <v>-1.058436844775594</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.237896223181012</v>
+        <v>-2.299796631016693</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.54157427328629</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.60709346775252</v>
+        <v>-29.76065308778313</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.064433119477105</v>
+        <v>-1.087122080301816</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.304653875370974</v>
+        <v>-2.36075439304777</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.8376279588059</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.80635159140851</v>
+        <v>-31.96627407062019</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.292042804380513</v>
+        <v>-1.328216837132202</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.51685391982967</v>
+        <v>-2.573203191260459</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.15953114949908</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.0690550146355</v>
+        <v>-34.22413334179575</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.424288155384788</v>
+        <v>-1.454675390280434</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.736961715204768</v>
+        <v>-2.7916613564775</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.5029172050109</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.2847570706607</v>
+        <v>-36.43840833681119</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.606284257187622</v>
+        <v>-1.623199512459132</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.813525502223182</v>
+        <v>-2.882129169113827</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.868399564746</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.62274123522761</v>
+        <v>-38.77389187153534</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.878447048661423</v>
+        <v>-1.891814289862825</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.079534911361373</v>
+        <v>-3.140715242540759</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.24222596910317</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.93359814830647</v>
+        <v>-41.07680175678927</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.89647514967448</v>
+        <v>-1.904736392767609</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.341171491350426</v>
+        <v>-3.374059356088842</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.63622791516693</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.26201183949608</v>
+        <v>-43.40990249239622</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.236547715988315</v>
+        <v>-2.239414930310653</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.380225830727295</v>
+        <v>-3.44655143692348</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-14.02024465340494</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.60783829346519</v>
+        <v>-45.74754625708925</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.273559656121874</v>
+        <v>-2.27951665391486</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.648552577468471</v>
+        <v>-3.703330772558253</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.4311753530756</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.15185602785235</v>
+        <v>-48.27826221178922</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.547385170056575</v>
+        <v>-2.540393880339093</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.668518339302103</v>
+        <v>-3.740041589726453</v>
       </c>
     </row>
   </sheetData>
